--- a/common/BranchCatalog_Chapter10001.xlsx
+++ b/common/BranchCatalog_Chapter10001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <r>
       <rPr>
@@ -275,6 +275,18 @@
       </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <t>1001,1013</t>
+  </si>
+  <si>
+    <t>1014,90000101,90000102</t>
+  </si>
+  <si>
+    <t>1017,1034</t>
+  </si>
+  <si>
+    <t>1035,1053</t>
   </si>
 </sst>
 </file>
@@ -303,23 +315,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,9 +339,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,12 +392,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -366,82 +424,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,7 +473,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,49 +494,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,133 +638,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,6 +701,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -716,30 +731,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -754,22 +745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +774,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -796,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,16 +814,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,118 +835,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -953,6 +965,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1273,60 +1288,121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="131.25" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="32.25" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>90000101</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1015</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>90000102</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1016</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
